--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-36.xlsx
@@ -1530,17 +1530,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -2752,17 +2752,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>72.5</v>
+        <v>145</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -4431,7 +4431,7 @@
     </row>
     <row r="132" ht="26.25" customHeight="1">
       <c r="K132" s="10">
-        <v>6885.9099999999999</v>
+        <v>6991.4099999999999</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
